--- a/SaleTable.xlsx
+++ b/SaleTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Bill_No</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>Item_sale_qty</t>
+  </si>
+  <si>
+    <t>Employee_ID</t>
   </si>
 </sst>
 </file>
@@ -66,8 +69,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,14 +92,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F22" totalsRowShown="0">
-  <autoFilter ref="B2:F22"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G22" totalsRowShown="0">
+  <autoFilter ref="B2:G22"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Bill_No"/>
     <tableColumn id="2" name="Sale_Date"/>
     <tableColumn id="3" name="Item_ID"/>
     <tableColumn id="4" name="Item_Sale_Price"/>
     <tableColumn id="5" name="Item_sale_qty"/>
+    <tableColumn id="6" name="Employee_ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -383,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F2"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,9 +406,10 @@
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -413,6 +424,309 @@
       </c>
       <c r="F2" t="s">
         <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20002</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>4002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20001</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>4003</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20003</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>4004</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44188</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20004</v>
+      </c>
+      <c r="E6" s="1">
+        <v>150</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>4005</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44138</v>
+      </c>
+      <c r="D7" s="1">
+        <v>20005</v>
+      </c>
+      <c r="E7" s="1">
+        <v>80</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>4006</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44185</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>200</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4007</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44110</v>
+      </c>
+      <c r="D9" s="1">
+        <v>20007</v>
+      </c>
+      <c r="E9" s="1">
+        <v>120</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>4008</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44178</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20008</v>
+      </c>
+      <c r="E10" s="1">
+        <v>455</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>4009</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44109</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>670</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>4010</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44148</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>720</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>4011</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44127</v>
+      </c>
+      <c r="D13" s="1">
+        <v>50003</v>
+      </c>
+      <c r="E13" s="1">
+        <v>300</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>4012</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43870</v>
+      </c>
+      <c r="D14" s="1">
+        <v>70001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1180</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>4013</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44176</v>
+      </c>
+      <c r="D15" s="1">
+        <v>70004</v>
+      </c>
+      <c r="E15" s="1">
+        <v>390</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>4014</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44175</v>
+      </c>
+      <c r="D16" s="1">
+        <v>70015</v>
+      </c>
+      <c r="E16" s="1">
+        <v>410</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>4015</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44119</v>
+      </c>
+      <c r="D17" s="1">
+        <v>90016</v>
+      </c>
+      <c r="E17" s="1">
+        <v>140</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
